--- a/src/backend/reservations.xlsx
+++ b/src/backend/reservations.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8395451-FB85-41C5-809D-7E36A3DADE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
   </bookViews>
   <sheets>
-    <sheet name="Reservations" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Reservations" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,14 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
@@ -423,7 +422,7 @@
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,6 +444,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>